--- a/data/trans_camb/P41A_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Dificultad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>6.187367726345622</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2408901585603751</v>
+        <v>0.2408901585603862</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.414106457002578</v>
+        <v>-1.707823837897444</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.655321339607523</v>
+        <v>-1.851921000454293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.891878027165061</v>
+        <v>-7.356387830460084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6131793338848471</v>
+        <v>0.9572335956109348</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.870501418682054</v>
+        <v>2.907405726191818</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.992218846028236</v>
+        <v>-6.359445399132984</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.3987429416655</v>
+        <v>1.990851840427683</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.037597997634005</v>
+        <v>3.087443718201905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.169274948432802</v>
+        <v>-3.766516927448757</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.36778884455439</v>
+        <v>8.77675456673618</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.986680745266993</v>
+        <v>8.116054377457067</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.038223632617833</v>
+        <v>6.163626996667102</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.597768928591275</v>
+        <v>9.514242522211877</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.2104345412926</v>
+        <v>11.34309580071243</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.44280197847911</v>
+        <v>4.360447352951135</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.970804373020993</v>
+        <v>8.793100313915135</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.250169852442955</v>
+        <v>9.769755575464924</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.487869551711293</v>
+        <v>4.722125460677241</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1783098963985008</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.006942063429239211</v>
+        <v>0.006942063429239531</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0322794313639297</v>
+        <v>-0.03404766885767332</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.03604563459691607</v>
+        <v>-0.04102702373437409</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1798751528243173</v>
+        <v>-0.1741976611326424</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.01654265953552877</v>
+        <v>0.03096739109794218</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08864355659068815</v>
+        <v>0.08686754667747072</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.192599353377703</v>
+        <v>-0.1962040087875579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06529665515653481</v>
+        <v>0.05468635556054863</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08416086860287764</v>
+        <v>0.08654921708620723</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1152790646485069</v>
+        <v>-0.1042571879105356</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.248309921441914</v>
+        <v>0.233610769791424</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2389940415764558</v>
+        <v>0.2109028472080711</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1802071932102764</v>
+        <v>0.1555172891256545</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3407664549485506</v>
+        <v>0.3405908634193484</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.407327656907924</v>
+        <v>0.4036272404722386</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.148483535821267</v>
+        <v>0.149899477431852</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2722105943719828</v>
+        <v>0.2665180338773361</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2825862356164728</v>
+        <v>0.2986206237918193</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1323220357944773</v>
+        <v>0.1440781290229998</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.688801913849325</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-4.257549436995367</v>
+        <v>-4.257549436995372</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.1431025272709718</v>
@@ -878,7 +878,7 @@
         <v>-2.864516079400587</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-5.867255519295189</v>
+        <v>-5.867255519295178</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.868836429909388</v>
+        <v>-2.746963552140141</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.040764922338047</v>
+        <v>-8.045457294122519</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.13213594605604</v>
+        <v>-12.65194419147478</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.044334959337142</v>
+        <v>-5.219706988025432</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.073662445217351</v>
+        <v>-6.273397546911695</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.010972806563231</v>
+        <v>-9.024353113235826</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.075803577067791</v>
+        <v>-3.24820077591018</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.92363610440688</v>
+        <v>-6.170933090236127</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-9.044451307843053</v>
+        <v>-9.004563380028701</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.039319906292401</v>
+        <v>5.789455564087379</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.473710308858092</v>
+        <v>1.250855159463871</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.702285520176854</v>
+        <v>-1.889752546454816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.932713577040762</v>
+        <v>3.665789491114799</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.649409207720107</v>
+        <v>2.376885386974218</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2749100284506815</v>
+        <v>-0.07552708499274111</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.243158369662748</v>
+        <v>3.241472738933345</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.170886478586024</v>
+        <v>0.4515526840348306</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.36717882817665</v>
+        <v>-2.428857244053415</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.04145564177953521</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1045116321051783</v>
+        <v>-0.1045116321051785</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.003105892995921562</v>
@@ -983,7 +983,7 @@
         <v>-0.06217137179463143</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1273427392945672</v>
+        <v>-0.1273427392945669</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05332828406446002</v>
+        <v>-0.05181376795691426</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.15040965547893</v>
+        <v>-0.1518959152942608</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2304258912319919</v>
+        <v>-0.2354427656517439</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1192932117055343</v>
+        <v>-0.1208309552342176</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1402856971924042</v>
+        <v>-0.1458872681970995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2093519767619583</v>
+        <v>-0.2112228602716744</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06439728872541406</v>
+        <v>-0.06861512345727888</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.125121415628903</v>
+        <v>-0.1288790042403098</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1910263661278595</v>
+        <v>-0.1904943270403432</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1242493952053967</v>
+        <v>0.1162471414261063</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02877730622778321</v>
+        <v>0.0253690652914156</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03453889066982123</v>
+        <v>-0.03816489538223748</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1024819888391089</v>
+        <v>0.09337131469044314</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.06928854135473832</v>
+        <v>0.06210052169142097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007497332215474596</v>
+        <v>-0.002233282506693318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07317852793881703</v>
+        <v>0.07360004204326785</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.003697709381101294</v>
+        <v>0.009654749296995982</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.05261565502760088</v>
+        <v>-0.05598268122982322</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-5.069333496675932</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-8.192953264154934</v>
+        <v>-8.192953264154918</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.400999239079989</v>
@@ -1092,7 +1092,7 @@
         <v>-3.63142988717462</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-10.02260313956014</v>
+        <v>-10.02260313956013</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.935610209496065</v>
+        <v>-7.222762535128685</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.489378101030533</v>
+        <v>-6.671020938982762</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-15.78732903066632</v>
+        <v>-16.19458991431143</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.45695074177594</v>
+        <v>-9.871138402513997</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.06431092514587</v>
+        <v>-9.562261210301529</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.72306599386871</v>
+        <v>-12.67662655486965</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.855754725772616</v>
+        <v>-7.490361834015117</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.133474758159925</v>
+        <v>-7.188944422750694</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.31645494801027</v>
+        <v>-13.5744841443107</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.588034110607307</v>
+        <v>1.604573110633229</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.552617789081954</v>
+        <v>2.288223939694778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.659993556636065</v>
+        <v>-6.319382751288721</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.477830272205009</v>
+        <v>-1.364089100153091</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.2946917640953452</v>
+        <v>0.364402789944596</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.781737523349353</v>
+        <v>-3.474477912124481</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-1.27475689485874</v>
+        <v>-0.8921306261135695</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.379036445153208</v>
+        <v>-0.2666237000276966</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.909260512518337</v>
+        <v>-6.800941920110947</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.04067604327214716</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2189723621101136</v>
+        <v>-0.2189723621101138</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1325916183884518</v>
@@ -1188,7 +1188,7 @@
         <v>-0.1111470863061126</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1796336508833143</v>
+        <v>-0.1796336508833139</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.08955335999328455</v>
@@ -1197,7 +1197,7 @@
         <v>-0.07389384326376403</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2039440904821616</v>
+        <v>-0.2039440904821613</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1274640401207234</v>
+        <v>-0.1324365846004732</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1211192512241984</v>
+        <v>-0.123079177271492</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2993148178691914</v>
+        <v>-0.2996633611248487</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2185794291883452</v>
+        <v>-0.2084213478340234</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2087629700288847</v>
+        <v>-0.2023881616660206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2673969526174588</v>
+        <v>-0.2649988229044257</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.153600806993091</v>
+        <v>-0.1475640088872612</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1406156722706586</v>
+        <v>-0.1427856856052297</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2666554635417758</v>
+        <v>-0.2660910174748521</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.05016584977330333</v>
+        <v>0.03179541021677555</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.05324595646465908</v>
+        <v>0.0450893199590639</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.1141262808625062</v>
+        <v>-0.1224776972964051</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.03445787107990594</v>
+        <v>-0.03224580391801158</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.003864819166908748</v>
+        <v>0.009125787701613165</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.08471541878601674</v>
+        <v>-0.08305516890456345</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02576071190768085</v>
+        <v>-0.01901567008109043</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.009201846371564302</v>
+        <v>-0.005768749918832896</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1420093575875954</v>
+        <v>-0.1411150703255903</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-14.18258519585801</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-14.50583027844438</v>
+        <v>-14.5058302784444</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-10.91721823526979</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.21386805665136</v>
+        <v>-10.36522230337449</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-20.85784829252342</v>
+        <v>-20.70583807651463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.86412050221267</v>
+        <v>-20.59038244779863</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-17.8902858315599</v>
+        <v>-18.2208304388868</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-21.77825267950592</v>
+        <v>-21.90571402026969</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-26.22101186501834</v>
+        <v>-25.82089578444177</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-11.71113844546551</v>
+        <v>-12.36737799523796</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-19.2004206331593</v>
+        <v>-19.19364567832491</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-21.58554980304787</v>
+        <v>-21.51688717469987</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.02216982922548</v>
+        <v>3.181944796679472</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.56983657488269</v>
+        <v>-8.410453736539537</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-8.21544774454264</v>
+        <v>-8.544697697212332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.666885772931387</v>
+        <v>-3.394149325082549</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-7.600713528638126</v>
+        <v>-7.448118126743306</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-13.91219568388837</v>
+        <v>-13.09603576161207</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.997815110605421</v>
+        <v>-2.611821267503601</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-9.962427940283336</v>
+        <v>-9.617459701334734</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-13.06217832793643</v>
+        <v>-12.83922767010984</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2577183231791345</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2635921592611761</v>
+        <v>-0.2635921592611764</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2053893480184794</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2675988170688617</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3183553316628555</v>
+        <v>-0.3183553316628554</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1736177871167986</v>
+        <v>-0.1760540751543468</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3570705827465315</v>
+        <v>-0.3597811960359912</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3486812200076789</v>
+        <v>-0.3485084363421684</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3097300768852713</v>
+        <v>-0.3191061468138549</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3819940875995183</v>
+        <v>-0.3808859582050346</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4599118104521341</v>
+        <v>-0.4585779749824109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2053983767561601</v>
+        <v>-0.2163652806905307</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3368220939023379</v>
+        <v>-0.3397636671017674</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3793811574944606</v>
+        <v>-0.3801796275375253</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05798239551155051</v>
+        <v>0.06217299645384244</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1475945445129867</v>
+        <v>-0.1608197242895266</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1577601234665419</v>
+        <v>-0.1615133349033953</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.07268586410217891</v>
+        <v>-0.07076031709304563</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1555396688398396</v>
+        <v>-0.1526984425387764</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2857870982640652</v>
+        <v>-0.2704691405770789</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.03736184438638166</v>
+        <v>-0.05020800786437732</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1896445126424967</v>
+        <v>-0.182950004899052</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2544253599187776</v>
+        <v>-0.2495639464164081</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.849626692708206</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.865704391705057</v>
+        <v>-5.865704391705062</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.427513579010486</v>
@@ -1520,7 +1520,7 @@
         <v>-2.979368811343591</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-7.241396149018231</v>
+        <v>-7.241396149018237</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.703712768849349</v>
+        <v>-3.090873745854896</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.280638968325261</v>
+        <v>-6.512267165916084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.48926681187894</v>
+        <v>-11.74840501416613</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.156562207944557</v>
+        <v>-4.271231371109688</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.201504054829823</v>
+        <v>-4.380279975329278</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.101543246719281</v>
+        <v>-8.284130390229691</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-3.082782209844619</v>
+        <v>-3.095028796800742</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.747803208237023</v>
+        <v>-4.673417556309041</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-9.213736731093913</v>
+        <v>-8.917372853418751</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.487841187943822</v>
+        <v>1.557442581603327</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.512063353746606</v>
+        <v>-1.876955658192349</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.017816350633007</v>
+        <v>-5.98229928814228</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4946535589007314</v>
+        <v>0.7808254324413493</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4954433772985339</v>
+        <v>0.5851328926209631</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.371188830797025</v>
+        <v>-3.477587917036197</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4065238074058682</v>
+        <v>0.3257859903571907</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.128654910554187</v>
+        <v>-1.207299700464577</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-5.279691009236387</v>
+        <v>-5.340982936520874</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.04554940905302298</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.144450428713637</v>
+        <v>-0.1444504287136372</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.03143501936976278</v>
@@ -1625,7 +1625,7 @@
         <v>-0.06560814388832159</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1594614801256763</v>
+        <v>-0.1594614801256764</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.07125490686131805</v>
+        <v>-0.06014286537210627</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1215391854675395</v>
+        <v>-0.1261286225085344</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2242739215242186</v>
+        <v>-0.2282296479872186</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.09992487549623907</v>
+        <v>-0.1021987342416784</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1000453699677742</v>
+        <v>-0.103372548681931</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1941833893430243</v>
+        <v>-0.1979542013438424</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.06642398142261852</v>
+        <v>-0.06750180096181968</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1019164091244929</v>
+        <v>-0.100465721093617</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.2001263413822619</v>
+        <v>-0.1939198452794634</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02988336680851096</v>
+        <v>0.03182141928069029</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.03022065080681301</v>
+        <v>-0.03758708301139172</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1225111222431647</v>
+        <v>-0.1209628158583573</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01237125684409515</v>
+        <v>0.02026967948952204</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.01297574801066229</v>
+        <v>0.01476511385494677</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.08531729182409689</v>
+        <v>-0.08811194226761619</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.009251562101010392</v>
+        <v>0.006841208732845595</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.02522052083780539</v>
+        <v>-0.02631137796741334</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1190518431370865</v>
+        <v>-0.1191538693734603</v>
       </c>
     </row>
     <row r="34">
